--- a/data/source/health/deaths.xlsx
+++ b/data/source/health/deaths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jarvis/R/safetytracker_houston/data/source/health/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jarvis/R/safetytracker_sanjose/data/source/health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF340E0-2BC0-364D-B516-A7C23AB8FC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F54475C-7061-E54E-99D9-2C992E6B0041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44380" yWindow="1940" windowWidth="24040" windowHeight="12440" xr2:uid="{B3EAE145-933F-EA42-897F-4C10ADAF8555}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{B3EAE145-933F-EA42-897F-4C10ADAF8555}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>AL</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>state</t>
-  </si>
-  <si>
-    <t>COVID</t>
   </si>
   <si>
     <t>Stroke</t>
@@ -288,7 +285,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -584,15 +581,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E158AB9-2990-A84F-8F40-098AF2E31F31}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -627,2217 +624,2064 @@
         <v>60</v>
       </c>
       <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>89.3</v>
+        <v>54.5</v>
       </c>
       <c r="C2">
-        <v>54.5</v>
+        <v>52.9</v>
       </c>
       <c r="D2">
-        <v>52.9</v>
+        <v>17.7</v>
       </c>
       <c r="E2">
-        <v>17.7</v>
+        <v>11.2</v>
       </c>
       <c r="F2">
-        <v>11.2</v>
+        <v>237.5</v>
       </c>
       <c r="G2">
-        <v>237.5</v>
+        <v>23.6</v>
       </c>
       <c r="H2">
-        <v>23.6</v>
+        <v>161.6</v>
       </c>
       <c r="I2">
-        <v>161.6</v>
+        <v>50.8</v>
       </c>
       <c r="J2">
-        <v>50.8</v>
+        <v>59.6</v>
       </c>
       <c r="K2">
-        <v>59.6</v>
+        <v>20</v>
       </c>
       <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="M2">
         <v>22.3</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>197.9</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C3">
-        <v>34.200000000000003</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="F3">
-        <v>8.4</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="G3">
-        <v>139.80000000000001</v>
+        <v>24.8</v>
       </c>
       <c r="H3">
-        <v>24.8</v>
+        <v>143.69999999999999</v>
       </c>
       <c r="I3">
-        <v>143.69999999999999</v>
+        <v>26.8</v>
       </c>
       <c r="J3">
-        <v>26.8</v>
+        <v>65.5</v>
       </c>
       <c r="K3">
-        <v>65.5</v>
+        <v>11.1</v>
       </c>
       <c r="L3">
-        <v>11.1</v>
-      </c>
-      <c r="M3">
         <v>22</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>196.8</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="C4">
+        <v>36.6</v>
+      </c>
+      <c r="D4">
+        <v>11.6</v>
+      </c>
+      <c r="E4">
+        <v>11.5</v>
+      </c>
+      <c r="F4">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="G4">
+        <v>26.5</v>
+      </c>
+      <c r="H4">
+        <v>127.7</v>
+      </c>
+      <c r="I4">
         <v>32.700000000000003</v>
       </c>
-      <c r="D4">
-        <v>36.6</v>
-      </c>
-      <c r="E4">
-        <v>11.6</v>
-      </c>
-      <c r="F4">
-        <v>11.5</v>
-      </c>
-      <c r="G4">
-        <v>144.80000000000001</v>
-      </c>
-      <c r="H4">
-        <v>26.5</v>
-      </c>
-      <c r="I4">
-        <v>127.7</v>
-      </c>
       <c r="J4">
-        <v>32.700000000000003</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="K4">
-        <v>69.099999999999994</v>
+        <v>14</v>
       </c>
       <c r="L4">
-        <v>14</v>
-      </c>
-      <c r="M4">
         <v>35.799999999999997</v>
       </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>91.9</v>
+        <v>43.5</v>
       </c>
       <c r="C5">
-        <v>43.5</v>
+        <v>60.4</v>
       </c>
       <c r="D5">
-        <v>60.4</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E5">
-        <v>18.100000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="F5">
-        <v>10.9</v>
+        <v>222.5</v>
       </c>
       <c r="G5">
-        <v>222.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="H5">
-        <v>33.799999999999997</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="I5">
-        <v>163.80000000000001</v>
+        <v>45.6</v>
       </c>
       <c r="J5">
-        <v>45.6</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>58</v>
+        <v>22.5</v>
       </c>
       <c r="L5">
-        <v>22.5</v>
-      </c>
-      <c r="M5">
         <v>19.100000000000001</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62.1</v>
+        <v>39.1</v>
       </c>
       <c r="C6">
-        <v>39.1</v>
+        <v>28.1</v>
       </c>
       <c r="D6">
-        <v>28.1</v>
+        <v>13.2</v>
       </c>
       <c r="E6">
         <v>13.2</v>
       </c>
       <c r="F6">
-        <v>13.2</v>
+        <v>144</v>
       </c>
       <c r="G6">
-        <v>144</v>
+        <v>25.4</v>
       </c>
       <c r="H6">
-        <v>25.4</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="I6">
-        <v>130.30000000000001</v>
+        <v>40.6</v>
       </c>
       <c r="J6">
-        <v>40.6</v>
+        <v>44.1</v>
       </c>
       <c r="K6">
-        <v>44.1</v>
+        <v>11.3</v>
       </c>
       <c r="L6">
-        <v>11.3</v>
-      </c>
-      <c r="M6">
         <v>21.8</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>172.4</v>
+        <v>35.9</v>
       </c>
       <c r="C7">
-        <v>35.9</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="D7">
-        <v>39.299999999999997</v>
+        <v>7.3</v>
       </c>
       <c r="E7">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="F7">
-        <v>6.7</v>
+        <v>128.1</v>
       </c>
       <c r="G7">
-        <v>128.1</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>127.2</v>
       </c>
       <c r="I7">
-        <v>127.2</v>
+        <v>36.9</v>
       </c>
       <c r="J7">
-        <v>36.9</v>
+        <v>60.5</v>
       </c>
       <c r="K7">
-        <v>60.5</v>
+        <v>11.6</v>
       </c>
       <c r="L7">
-        <v>11.6</v>
-      </c>
-      <c r="M7">
         <v>24.9</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>54.2</v>
+        <v>28.4</v>
       </c>
       <c r="C8">
-        <v>28.4</v>
+        <v>24.4</v>
       </c>
       <c r="D8">
-        <v>24.4</v>
+        <v>10.3</v>
       </c>
       <c r="E8">
-        <v>10.3</v>
+        <v>7.5</v>
       </c>
       <c r="F8">
-        <v>7.5</v>
+        <v>138.4</v>
       </c>
       <c r="G8">
-        <v>138.4</v>
+        <v>17.5</v>
       </c>
       <c r="H8">
-        <v>17.5</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="I8">
-        <v>133.80000000000001</v>
+        <v>20.3</v>
       </c>
       <c r="J8">
-        <v>20.3</v>
+        <v>63.5</v>
       </c>
       <c r="K8">
-        <v>63.5</v>
+        <v>9.1</v>
       </c>
       <c r="L8">
-        <v>9.1</v>
-      </c>
-      <c r="M8">
         <v>39.1</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>98.9</v>
+        <v>52.5</v>
       </c>
       <c r="C9">
-        <v>52.5</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="D9">
-        <v>32.700000000000003</v>
+        <v>11.6</v>
       </c>
       <c r="E9">
-        <v>11.6</v>
+        <v>7.9</v>
       </c>
       <c r="F9">
-        <v>7.9</v>
+        <v>159.6</v>
       </c>
       <c r="G9">
-        <v>159.6</v>
+        <v>23.8</v>
       </c>
       <c r="H9">
-        <v>23.8</v>
+        <v>151.1</v>
       </c>
       <c r="I9">
-        <v>151.1</v>
+        <v>35.1</v>
       </c>
       <c r="J9">
-        <v>35.1</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="K9">
-        <v>70.900000000000006</v>
+        <v>12.6</v>
       </c>
       <c r="L9">
-        <v>12.6</v>
-      </c>
-      <c r="M9">
         <v>47.3</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>48.6</v>
+        <v>43.5</v>
       </c>
       <c r="C10">
-        <v>43.5</v>
+        <v>33.4</v>
       </c>
       <c r="D10">
-        <v>33.4</v>
+        <v>9.5</v>
       </c>
       <c r="E10">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F10">
-        <v>9.3000000000000007</v>
+        <v>143.1</v>
       </c>
       <c r="G10">
-        <v>143.1</v>
+        <v>22.8</v>
       </c>
       <c r="H10">
-        <v>22.8</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="I10">
-        <v>136.30000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="J10">
-        <v>19.8</v>
+        <v>67.7</v>
       </c>
       <c r="K10">
-        <v>67.7</v>
+        <v>16.2</v>
       </c>
       <c r="L10">
-        <v>16.2</v>
-      </c>
-      <c r="M10">
         <v>35</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>41.6</v>
       </c>
       <c r="D11">
-        <v>41.6</v>
+        <v>13.8</v>
       </c>
       <c r="E11">
-        <v>13.8</v>
+        <v>12.2</v>
       </c>
       <c r="F11">
-        <v>12.2</v>
+        <v>183.7</v>
       </c>
       <c r="G11">
-        <v>183.7</v>
+        <v>23.9</v>
       </c>
       <c r="H11">
-        <v>23.9</v>
+        <v>147.6</v>
       </c>
       <c r="I11">
-        <v>147.6</v>
+        <v>45.9</v>
       </c>
       <c r="J11">
-        <v>45.9</v>
+        <v>50.8</v>
       </c>
       <c r="K11">
-        <v>50.8</v>
+        <v>16.7</v>
       </c>
       <c r="L11">
-        <v>16.7</v>
-      </c>
-      <c r="M11">
         <v>18</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.2</v>
+        <v>38.4</v>
       </c>
       <c r="C12">
-        <v>38.4</v>
+        <v>17.8</v>
       </c>
       <c r="D12">
-        <v>17.8</v>
+        <v>11.1</v>
       </c>
       <c r="E12">
-        <v>11.1</v>
+        <v>7.2</v>
       </c>
       <c r="F12">
-        <v>7.2</v>
+        <v>125</v>
       </c>
       <c r="G12">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>123.8</v>
       </c>
       <c r="I12">
-        <v>123.8</v>
+        <v>22.8</v>
       </c>
       <c r="J12">
-        <v>22.8</v>
+        <v>39.4</v>
       </c>
       <c r="K12">
-        <v>39.4</v>
+        <v>6.3</v>
       </c>
       <c r="L12">
-        <v>6.3</v>
-      </c>
-      <c r="M12">
         <v>18.3</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>190.6</v>
+        <v>37.4</v>
       </c>
       <c r="C13">
-        <v>37.4</v>
+        <v>39.4</v>
       </c>
       <c r="D13">
-        <v>39.4</v>
+        <v>8.6</v>
       </c>
       <c r="E13">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>151.9</v>
       </c>
       <c r="G13">
-        <v>151.9</v>
+        <v>22.7</v>
       </c>
       <c r="H13">
-        <v>22.7</v>
+        <v>136.5</v>
       </c>
       <c r="I13">
-        <v>136.5</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="J13">
-        <v>36.700000000000003</v>
+        <v>50.8</v>
       </c>
       <c r="K13">
-        <v>50.8</v>
+        <v>13.3</v>
       </c>
       <c r="L13">
-        <v>13.3</v>
-      </c>
-      <c r="M13">
         <v>15.9</v>
       </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94.3</v>
+        <v>42.3</v>
       </c>
       <c r="C14">
-        <v>42.3</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>15.4</v>
       </c>
       <c r="E14">
-        <v>15.4</v>
+        <v>9.9</v>
       </c>
       <c r="F14">
-        <v>9.9</v>
+        <v>171.4</v>
       </c>
       <c r="G14">
-        <v>171.4</v>
+        <v>22.2</v>
       </c>
       <c r="H14">
-        <v>22.2</v>
+        <v>150.9</v>
       </c>
       <c r="I14">
-        <v>150.9</v>
+        <v>28.7</v>
       </c>
       <c r="J14">
-        <v>28.7</v>
+        <v>53.4</v>
       </c>
       <c r="K14">
-        <v>53.4</v>
+        <v>10.5</v>
       </c>
       <c r="L14">
-        <v>10.5</v>
-      </c>
-      <c r="M14">
         <v>28.1</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>166.9</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C15">
-        <v>40.299999999999997</v>
+        <v>53.7</v>
       </c>
       <c r="D15">
-        <v>53.7</v>
+        <v>12.6</v>
       </c>
       <c r="E15">
-        <v>12.6</v>
+        <v>11.3</v>
       </c>
       <c r="F15">
-        <v>11.3</v>
+        <v>183.9</v>
       </c>
       <c r="G15">
-        <v>183.9</v>
+        <v>29.6</v>
       </c>
       <c r="H15">
-        <v>29.6</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="I15">
-        <v>162.69999999999999</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="J15">
-        <v>34.299999999999997</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="K15">
-        <v>66.900000000000006</v>
+        <v>14.1</v>
       </c>
       <c r="L15">
-        <v>14.1</v>
-      </c>
-      <c r="M15">
         <v>36.700000000000003</v>
       </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>135.6</v>
+        <v>31.9</v>
       </c>
       <c r="C16">
+        <v>39.4</v>
+      </c>
+      <c r="D16">
+        <v>12.4</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>172.9</v>
+      </c>
+      <c r="G16">
+        <v>24.7</v>
+      </c>
+      <c r="H16">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="I16">
         <v>31.9</v>
       </c>
-      <c r="D16">
-        <v>39.4</v>
-      </c>
-      <c r="E16">
-        <v>12.4</v>
-      </c>
-      <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>172.9</v>
-      </c>
-      <c r="H16">
-        <v>24.7</v>
-      </c>
-      <c r="I16">
-        <v>147.80000000000001</v>
-      </c>
       <c r="J16">
-        <v>31.9</v>
+        <v>45.7</v>
       </c>
       <c r="K16">
-        <v>45.7</v>
+        <v>11.6</v>
       </c>
       <c r="L16">
-        <v>11.6</v>
-      </c>
-      <c r="M16">
         <v>14.3</v>
       </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>138.1</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C17">
-        <v>36.700000000000003</v>
+        <v>43.9</v>
       </c>
       <c r="D17">
-        <v>43.9</v>
+        <v>13.8</v>
       </c>
       <c r="E17">
-        <v>13.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F17">
-        <v>9.1999999999999993</v>
+        <v>167</v>
       </c>
       <c r="G17">
-        <v>167</v>
+        <v>28.5</v>
       </c>
       <c r="H17">
-        <v>28.5</v>
+        <v>151.4</v>
       </c>
       <c r="I17">
-        <v>151.4</v>
+        <v>25.3</v>
       </c>
       <c r="J17">
-        <v>25.3</v>
+        <v>53.4</v>
       </c>
       <c r="K17">
-        <v>53.4</v>
+        <v>14.7</v>
       </c>
       <c r="L17">
-        <v>14.7</v>
-      </c>
-      <c r="M17">
         <v>17.399999999999999</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>165.3</v>
+        <v>42.4</v>
       </c>
       <c r="C18">
-        <v>42.4</v>
+        <v>56.2</v>
       </c>
       <c r="D18">
-        <v>56.2</v>
+        <v>16.3</v>
       </c>
       <c r="E18">
-        <v>16.3</v>
+        <v>8.1</v>
       </c>
       <c r="F18">
-        <v>8.1</v>
+        <v>204.5</v>
       </c>
       <c r="G18">
-        <v>204.5</v>
+        <v>27.7</v>
       </c>
       <c r="H18">
-        <v>27.7</v>
+        <v>177.3</v>
       </c>
       <c r="I18">
-        <v>177.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="J18">
-        <v>32.299999999999997</v>
+        <v>87.5</v>
       </c>
       <c r="K18">
-        <v>87.5</v>
+        <v>19.2</v>
       </c>
       <c r="L18">
-        <v>19.2</v>
-      </c>
-      <c r="M18">
         <v>49.2</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>53.3</v>
+        <v>46.6</v>
       </c>
       <c r="C19">
-        <v>46.6</v>
+        <v>41.6</v>
       </c>
       <c r="D19">
-        <v>41.6</v>
+        <v>14.2</v>
       </c>
       <c r="E19">
-        <v>14.2</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>221.5</v>
       </c>
       <c r="G19">
-        <v>221.5</v>
+        <v>33.1</v>
       </c>
       <c r="H19">
-        <v>33.1</v>
+        <v>159.9</v>
       </c>
       <c r="I19">
-        <v>159.9</v>
+        <v>45.8</v>
       </c>
       <c r="J19">
-        <v>45.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="K19">
-        <v>79.400000000000006</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="L19">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="M19">
         <v>42.7</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>132.69999999999999</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>41.5</v>
       </c>
       <c r="D20">
-        <v>41.5</v>
+        <v>11.5</v>
       </c>
       <c r="E20">
-        <v>11.5</v>
+        <v>7.3</v>
       </c>
       <c r="F20">
-        <v>7.3</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="G20">
-        <v>146.19999999999999</v>
+        <v>23.9</v>
       </c>
       <c r="H20">
-        <v>23.9</v>
+        <v>161.5</v>
       </c>
       <c r="I20">
-        <v>161.5</v>
+        <v>27.9</v>
       </c>
       <c r="J20">
-        <v>27.9</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="K20">
-        <v>76.900000000000006</v>
+        <v>13.9</v>
       </c>
       <c r="L20">
-        <v>13.9</v>
-      </c>
-      <c r="M20">
         <v>39.700000000000003</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74.3</v>
+        <v>42.5</v>
       </c>
       <c r="C21">
-        <v>42.5</v>
+        <v>27.7</v>
       </c>
       <c r="D21">
-        <v>27.7</v>
+        <v>12.3</v>
       </c>
       <c r="E21">
-        <v>12.3</v>
+        <v>10.5</v>
       </c>
       <c r="F21">
-        <v>10.5</v>
+        <v>168.3</v>
       </c>
       <c r="G21">
-        <v>168.3</v>
+        <v>23.9</v>
       </c>
       <c r="H21">
-        <v>23.9</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="I21">
-        <v>142.30000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="J21">
-        <v>15.8</v>
+        <v>44.4</v>
       </c>
       <c r="K21">
-        <v>44.4</v>
+        <v>10.4</v>
       </c>
       <c r="L21">
-        <v>10.4</v>
-      </c>
-      <c r="M21">
         <v>44.6</v>
       </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>59.7</v>
+        <v>24.4</v>
       </c>
       <c r="C22">
-        <v>24.4</v>
+        <v>27.8</v>
       </c>
       <c r="D22">
-        <v>27.8</v>
+        <v>14.5</v>
       </c>
       <c r="E22">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>126.9</v>
       </c>
       <c r="G22">
-        <v>126.9</v>
+        <v>17.2</v>
       </c>
       <c r="H22">
-        <v>17.2</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="I22">
-        <v>135.19999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="J22">
-        <v>18.600000000000001</v>
+        <v>54.3</v>
       </c>
       <c r="K22">
-        <v>54.3</v>
+        <v>5.6</v>
       </c>
       <c r="L22">
-        <v>5.6</v>
-      </c>
-      <c r="M22">
         <v>33.9</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>205.4</v>
+        <v>44.5</v>
       </c>
       <c r="C23">
-        <v>44.5</v>
+        <v>41.9</v>
       </c>
       <c r="D23">
-        <v>41.9</v>
+        <v>14.4</v>
       </c>
       <c r="E23">
-        <v>14.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F23">
-        <v>9.1999999999999993</v>
+        <v>205</v>
       </c>
       <c r="G23">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="I23">
-        <v>157.30000000000001</v>
+        <v>36.9</v>
       </c>
       <c r="J23">
-        <v>36.9</v>
+        <v>56.8</v>
       </c>
       <c r="K23">
-        <v>56.8</v>
+        <v>12.2</v>
       </c>
       <c r="L23">
-        <v>12.2</v>
-      </c>
-      <c r="M23">
         <v>28.6</v>
       </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>135.9</v>
+        <v>32.1</v>
       </c>
       <c r="C24">
-        <v>32.1</v>
+        <v>30.6</v>
       </c>
       <c r="D24">
-        <v>30.6</v>
+        <v>7.9</v>
       </c>
       <c r="E24">
-        <v>7.9</v>
+        <v>11.3</v>
       </c>
       <c r="F24">
-        <v>11.3</v>
+        <v>118.1</v>
       </c>
       <c r="G24">
-        <v>118.1</v>
+        <v>21</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="I24">
-        <v>138.69999999999999</v>
+        <v>35</v>
       </c>
       <c r="J24">
-        <v>35</v>
+        <v>52.6</v>
       </c>
       <c r="K24">
-        <v>52.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L24">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M24">
         <v>19</v>
       </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>72.7</v>
+        <v>54.5</v>
       </c>
       <c r="C25">
-        <v>54.5</v>
+        <v>59.2</v>
       </c>
       <c r="D25">
-        <v>59.2</v>
+        <v>25.1</v>
       </c>
       <c r="E25">
-        <v>25.1</v>
+        <v>18</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>245.6</v>
       </c>
       <c r="G25">
-        <v>245.6</v>
+        <v>41</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="I25">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="J25">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>73</v>
+        <v>28.4</v>
       </c>
       <c r="L25">
-        <v>28.4</v>
-      </c>
-      <c r="M25">
         <v>21.1</v>
       </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>104.4</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C26">
-        <v>40.299999999999997</v>
+        <v>47</v>
       </c>
       <c r="D26">
-        <v>47</v>
+        <v>14.3</v>
       </c>
       <c r="E26">
-        <v>14.3</v>
+        <v>7.2</v>
       </c>
       <c r="F26">
-        <v>7.2</v>
+        <v>196.7</v>
       </c>
       <c r="G26">
-        <v>196.7</v>
+        <v>23.1</v>
       </c>
       <c r="H26">
-        <v>23.1</v>
+        <v>157.9</v>
       </c>
       <c r="I26">
-        <v>157.9</v>
+        <v>34.9</v>
       </c>
       <c r="J26">
-        <v>34.9</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="K26">
-        <v>68.400000000000006</v>
+        <v>16.8</v>
       </c>
       <c r="L26">
-        <v>16.8</v>
-      </c>
-      <c r="M26">
         <v>32.1</v>
       </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>222.5</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>42.4</v>
       </c>
       <c r="D27">
-        <v>42.4</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="F27">
-        <v>6.5</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="G27">
-        <v>162.69999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="H27">
-        <v>23.5</v>
+        <v>141.5</v>
       </c>
       <c r="I27">
-        <v>141.5</v>
+        <v>23.8</v>
       </c>
       <c r="J27">
-        <v>23.8</v>
+        <v>61.9</v>
       </c>
       <c r="K27">
-        <v>61.9</v>
+        <v>19.2</v>
       </c>
       <c r="L27">
-        <v>19.2</v>
-      </c>
-      <c r="M27">
         <v>15.6</v>
       </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>128.69999999999999</v>
+        <v>36.1</v>
       </c>
       <c r="C28">
-        <v>36.1</v>
+        <v>43.4</v>
       </c>
       <c r="D28">
-        <v>43.4</v>
+        <v>12.1</v>
       </c>
       <c r="E28">
-        <v>12.1</v>
+        <v>14.2</v>
       </c>
       <c r="F28">
-        <v>14.2</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="G28">
-        <v>143.80000000000001</v>
+        <v>26.2</v>
       </c>
       <c r="H28">
-        <v>26.2</v>
+        <v>147.6</v>
       </c>
       <c r="I28">
-        <v>147.6</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="J28">
-        <v>32.200000000000003</v>
+        <v>42.3</v>
       </c>
       <c r="K28">
-        <v>42.3</v>
+        <v>12.3</v>
       </c>
       <c r="L28">
-        <v>12.3</v>
-      </c>
-      <c r="M28">
         <v>11.3</v>
       </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>148.19999999999999</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C29">
-        <v>40.299999999999997</v>
+        <v>44.9</v>
       </c>
       <c r="D29">
-        <v>44.9</v>
+        <v>13.6</v>
       </c>
       <c r="E29">
-        <v>13.6</v>
+        <v>10.4</v>
       </c>
       <c r="F29">
-        <v>10.4</v>
+        <v>201.3</v>
       </c>
       <c r="G29">
-        <v>201.3</v>
+        <v>24.2</v>
       </c>
       <c r="H29">
-        <v>24.2</v>
+        <v>144.1</v>
       </c>
       <c r="I29">
-        <v>144.1</v>
+        <v>28.7</v>
       </c>
       <c r="J29">
-        <v>28.7</v>
+        <v>53.5</v>
       </c>
       <c r="K29">
-        <v>53.5</v>
+        <v>11.5</v>
       </c>
       <c r="L29">
-        <v>11.5</v>
-      </c>
-      <c r="M29">
         <v>26</v>
       </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>111.2</v>
+        <v>29.8</v>
       </c>
       <c r="C30">
-        <v>29.8</v>
+        <v>33.4</v>
       </c>
       <c r="D30">
-        <v>33.4</v>
+        <v>9.6</v>
       </c>
       <c r="E30">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="F30">
-        <v>7.2</v>
+        <v>146.5</v>
       </c>
       <c r="G30">
-        <v>146.5</v>
+        <v>19.2</v>
       </c>
       <c r="H30">
-        <v>19.2</v>
+        <v>145</v>
       </c>
       <c r="I30">
-        <v>145</v>
+        <v>26.1</v>
       </c>
       <c r="J30">
-        <v>26.1</v>
+        <v>58.1</v>
       </c>
       <c r="K30">
-        <v>58.1</v>
+        <v>8.9</v>
       </c>
       <c r="L30">
-        <v>8.9</v>
-      </c>
-      <c r="M30">
         <v>30.3</v>
       </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>55.6</v>
+        <v>31.8</v>
       </c>
       <c r="C31">
-        <v>31.8</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>14.1</v>
       </c>
       <c r="E31">
-        <v>14.1</v>
+        <v>8.9</v>
       </c>
       <c r="F31">
-        <v>8.9</v>
+        <v>166.3</v>
       </c>
       <c r="G31">
-        <v>166.3</v>
+        <v>21.2</v>
       </c>
       <c r="H31">
-        <v>21.2</v>
+        <v>133.4</v>
       </c>
       <c r="I31">
-        <v>133.4</v>
+        <v>22.1</v>
       </c>
       <c r="J31">
-        <v>22.1</v>
+        <v>50.3</v>
       </c>
       <c r="K31">
-        <v>50.3</v>
+        <v>7</v>
       </c>
       <c r="L31">
-        <v>7</v>
-      </c>
-      <c r="M31">
         <v>32.1</v>
       </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>258</v>
+        <v>34.6</v>
       </c>
       <c r="C32">
-        <v>34.6</v>
+        <v>41.3</v>
       </c>
       <c r="D32">
-        <v>41.3</v>
+        <v>13.4</v>
       </c>
       <c r="E32">
-        <v>13.4</v>
+        <v>6.1</v>
       </c>
       <c r="F32">
-        <v>6.1</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="G32">
-        <v>152.69999999999999</v>
+        <v>29.3</v>
       </c>
       <c r="H32">
-        <v>29.3</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="I32">
-        <v>129.80000000000001</v>
+        <v>26.6</v>
       </c>
       <c r="J32">
-        <v>26.6</v>
+        <v>85.5</v>
       </c>
       <c r="K32">
-        <v>85.5</v>
+        <v>20</v>
       </c>
       <c r="L32">
-        <v>20</v>
-      </c>
-      <c r="M32">
         <v>39</v>
       </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>71.400000000000006</v>
+        <v>24.8</v>
       </c>
       <c r="C33">
-        <v>24.8</v>
+        <v>25.5</v>
       </c>
       <c r="D33">
-        <v>25.5</v>
+        <v>18.2</v>
       </c>
       <c r="E33">
-        <v>18.2</v>
+        <v>11.8</v>
       </c>
       <c r="F33">
-        <v>11.8</v>
+        <v>183.9</v>
       </c>
       <c r="G33">
-        <v>183.9</v>
+        <v>21.2</v>
       </c>
       <c r="H33">
-        <v>21.2</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="I33">
-        <v>128.80000000000001</v>
+        <v>14</v>
       </c>
       <c r="J33">
-        <v>14</v>
+        <v>41.7</v>
       </c>
       <c r="K33">
-        <v>41.7</v>
+        <v>6.2</v>
       </c>
       <c r="L33">
-        <v>6.2</v>
-      </c>
-      <c r="M33">
         <v>25.4</v>
       </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>92</v>
+        <v>44.4</v>
       </c>
       <c r="C34">
-        <v>44.4</v>
+        <v>38.5</v>
       </c>
       <c r="D34">
-        <v>38.5</v>
+        <v>14</v>
       </c>
       <c r="E34">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="F34">
-        <v>9.5</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="G34">
-        <v>156.19999999999999</v>
+        <v>26.9</v>
       </c>
       <c r="H34">
-        <v>26.9</v>
+        <v>148.4</v>
       </c>
       <c r="I34">
-        <v>148.4</v>
+        <v>37.5</v>
       </c>
       <c r="J34">
-        <v>37.5</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="K34">
-        <v>67.099999999999994</v>
+        <v>16.7</v>
       </c>
       <c r="L34">
-        <v>16.7</v>
-      </c>
-      <c r="M34">
         <v>30.9</v>
       </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>169.5</v>
+        <v>32.1</v>
       </c>
       <c r="C35">
-        <v>32.1</v>
+        <v>34.6</v>
       </c>
       <c r="D35">
-        <v>34.6</v>
+        <v>15.2</v>
       </c>
       <c r="E35">
-        <v>15.2</v>
+        <v>9.6</v>
       </c>
       <c r="F35">
-        <v>9.6</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="G35">
-        <v>147.30000000000001</v>
+        <v>24.3</v>
       </c>
       <c r="H35">
-        <v>24.3</v>
+        <v>139.5</v>
       </c>
       <c r="I35">
-        <v>139.5</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="J35">
-        <v>39.700000000000003</v>
+        <v>51.9</v>
       </c>
       <c r="K35">
-        <v>51.9</v>
+        <v>13.6</v>
       </c>
       <c r="L35">
-        <v>13.6</v>
-      </c>
-      <c r="M35">
         <v>15.6</v>
       </c>
-      <c r="N35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>221.4</v>
+        <v>45.3</v>
       </c>
       <c r="C36">
-        <v>45.3</v>
+        <v>44.6</v>
       </c>
       <c r="D36">
-        <v>44.6</v>
+        <v>13.3</v>
       </c>
       <c r="E36">
-        <v>13.3</v>
+        <v>9.9</v>
       </c>
       <c r="F36">
-        <v>9.9</v>
+        <v>196.9</v>
       </c>
       <c r="G36">
-        <v>196.9</v>
+        <v>28.3</v>
       </c>
       <c r="H36">
-        <v>28.3</v>
+        <v>159.1</v>
       </c>
       <c r="I36">
-        <v>159.1</v>
+        <v>38</v>
       </c>
       <c r="J36">
-        <v>38</v>
+        <v>78.2</v>
       </c>
       <c r="K36">
-        <v>78.2</v>
+        <v>11.7</v>
       </c>
       <c r="L36">
-        <v>11.7</v>
-      </c>
-      <c r="M36">
         <v>47.2</v>
       </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>138.1</v>
+        <v>41</v>
       </c>
       <c r="C37">
-        <v>41</v>
+        <v>60.1</v>
       </c>
       <c r="D37">
-        <v>60.1</v>
+        <v>13.9</v>
       </c>
       <c r="E37">
-        <v>13.9</v>
+        <v>8.4</v>
       </c>
       <c r="F37">
-        <v>8.4</v>
+        <v>244.1</v>
       </c>
       <c r="G37">
-        <v>244.1</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="H37">
-        <v>32.799999999999997</v>
+        <v>171.1</v>
       </c>
       <c r="I37">
-        <v>171.1</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="J37">
-        <v>38.200000000000003</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="L37">
-        <v>18</v>
-      </c>
-      <c r="M37">
         <v>19.399999999999999</v>
       </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>86.8</v>
+        <v>40.5</v>
       </c>
       <c r="C38">
-        <v>40.5</v>
+        <v>34.6</v>
       </c>
       <c r="D38">
-        <v>34.6</v>
+        <v>7.1</v>
       </c>
       <c r="E38">
-        <v>7.1</v>
+        <v>12</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="G38">
-        <v>134</v>
+        <v>24.5</v>
       </c>
       <c r="H38">
-        <v>24.5</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="I38">
-        <v>145.80000000000001</v>
+        <v>37</v>
       </c>
       <c r="J38">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>52</v>
+        <v>12.4</v>
       </c>
       <c r="L38">
-        <v>12.4</v>
-      </c>
-      <c r="M38">
         <v>18.7</v>
       </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>166.8</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C39">
-        <v>36.700000000000003</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D39">
-        <v>32.799999999999997</v>
+        <v>12.9</v>
       </c>
       <c r="E39">
-        <v>12.9</v>
+        <v>7.4</v>
       </c>
       <c r="F39">
-        <v>7.4</v>
+        <v>175.7</v>
       </c>
       <c r="G39">
-        <v>175.7</v>
+        <v>23.6</v>
       </c>
       <c r="H39">
-        <v>23.6</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="I39">
-        <v>153.19999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="J39">
-        <v>23.2</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>69</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L39">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="M39">
         <v>42.4</v>
       </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>71.900000000000006</v>
+        <v>26.7</v>
       </c>
       <c r="C40">
-        <v>26.7</v>
+        <v>29.5</v>
       </c>
       <c r="D40">
-        <v>29.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E40">
-        <v>9.3000000000000007</v>
+        <v>6.9</v>
       </c>
       <c r="F40">
-        <v>6.9</v>
+        <v>150.5</v>
       </c>
       <c r="G40">
-        <v>150.5</v>
+        <v>23.2</v>
       </c>
       <c r="H40">
-        <v>23.2</v>
+        <v>141.6</v>
       </c>
       <c r="I40">
-        <v>141.6</v>
+        <v>31.9</v>
       </c>
       <c r="J40">
-        <v>31.9</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="K40">
-        <v>65.599999999999994</v>
+        <v>7</v>
       </c>
       <c r="L40">
-        <v>7</v>
-      </c>
-      <c r="M40">
         <v>38.200000000000003</v>
       </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>110.8</v>
+        <v>43.5</v>
       </c>
       <c r="C41">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="D41">
-        <v>43.6</v>
+        <v>11.6</v>
       </c>
       <c r="E41">
-        <v>11.6</v>
+        <v>9.9</v>
       </c>
       <c r="F41">
-        <v>9.9</v>
+        <v>170.9</v>
       </c>
       <c r="G41">
-        <v>170.9</v>
+        <v>28.5</v>
       </c>
       <c r="H41">
-        <v>28.5</v>
+        <v>153.9</v>
       </c>
       <c r="I41">
-        <v>153.9</v>
+        <v>40.4</v>
       </c>
       <c r="J41">
-        <v>40.4</v>
+        <v>77.8</v>
       </c>
       <c r="K41">
-        <v>77.8</v>
+        <v>21.4</v>
       </c>
       <c r="L41">
-        <v>21.4</v>
-      </c>
-      <c r="M41">
         <v>34.9</v>
       </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>126.2</v>
+        <v>35.5</v>
       </c>
       <c r="C42">
-        <v>35.5</v>
+        <v>36.9</v>
       </c>
       <c r="D42">
-        <v>36.9</v>
+        <v>12.3</v>
       </c>
       <c r="E42">
-        <v>12.3</v>
+        <v>10.5</v>
       </c>
       <c r="F42">
-        <v>10.5</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="G42">
-        <v>155.19999999999999</v>
+        <v>29.2</v>
       </c>
       <c r="H42">
-        <v>29.2</v>
+        <v>148.1</v>
       </c>
       <c r="I42">
-        <v>148.1</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="J42">
-        <v>39.700000000000003</v>
+        <v>58.5</v>
       </c>
       <c r="K42">
-        <v>58.5</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="L42">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="M42">
         <v>10.3</v>
       </c>
-      <c r="N42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>129.6</v>
+        <v>43.6</v>
       </c>
       <c r="C43">
-        <v>43.6</v>
+        <v>51.2</v>
       </c>
       <c r="D43">
-        <v>51.2</v>
+        <v>18.5</v>
       </c>
       <c r="E43">
-        <v>18.5</v>
+        <v>12.2</v>
       </c>
       <c r="F43">
-        <v>12.2</v>
+        <v>212</v>
       </c>
       <c r="G43">
-        <v>212</v>
+        <v>30.1</v>
       </c>
       <c r="H43">
-        <v>30.1</v>
+        <v>164.4</v>
       </c>
       <c r="I43">
-        <v>164.4</v>
+        <v>44.4</v>
       </c>
       <c r="J43">
-        <v>44.4</v>
+        <v>86.5</v>
       </c>
       <c r="K43">
-        <v>86.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="L43">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="M43">
         <v>45.6</v>
       </c>
-      <c r="N43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>103.7</v>
+        <v>41.1</v>
       </c>
       <c r="C44">
-        <v>41.1</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D44">
-        <v>36.200000000000003</v>
+        <v>12.2</v>
       </c>
       <c r="E44">
-        <v>12.2</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F44">
-        <v>9.3000000000000007</v>
+        <v>173.9</v>
       </c>
       <c r="G44">
-        <v>173.9</v>
+        <v>26.7</v>
       </c>
       <c r="H44">
-        <v>26.7</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="I44">
-        <v>139.80000000000001</v>
+        <v>44.6</v>
       </c>
       <c r="J44">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="K44">
-        <v>44.2</v>
+        <v>13.9</v>
       </c>
       <c r="L44">
-        <v>13.9</v>
-      </c>
-      <c r="M44">
         <v>14.1</v>
       </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>121.1</v>
+        <v>34.1</v>
       </c>
       <c r="C45">
-        <v>34.1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="D45">
-        <v>32.700000000000003</v>
+        <v>10.1</v>
       </c>
       <c r="E45">
-        <v>10.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F45">
-        <v>8.6999999999999993</v>
+        <v>155.6</v>
       </c>
       <c r="G45">
-        <v>155.6</v>
+        <v>27.3</v>
       </c>
       <c r="H45">
-        <v>27.3</v>
+        <v>119.5</v>
       </c>
       <c r="I45">
-        <v>119.5</v>
+        <v>42.9</v>
       </c>
       <c r="J45">
-        <v>42.9</v>
+        <v>49.4</v>
       </c>
       <c r="K45">
-        <v>49.4</v>
+        <v>9.9</v>
       </c>
       <c r="L45">
-        <v>9.9</v>
-      </c>
-      <c r="M45">
         <v>20.5</v>
       </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>56.8</v>
+        <v>28.3</v>
       </c>
       <c r="C46">
-        <v>28.3</v>
+        <v>37.4</v>
       </c>
       <c r="D46">
-        <v>37.4</v>
+        <v>6.2</v>
       </c>
       <c r="E46">
-        <v>6.2</v>
+        <v>9.1</v>
       </c>
       <c r="F46">
-        <v>9.1</v>
+        <v>167.1</v>
       </c>
       <c r="G46">
-        <v>167.1</v>
+        <v>17.5</v>
       </c>
       <c r="H46">
-        <v>17.5</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="I46">
-        <v>152.19999999999999</v>
+        <v>31</v>
       </c>
       <c r="J46">
-        <v>31</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="K46">
-        <v>67.099999999999994</v>
+        <v>10.9</v>
       </c>
       <c r="L46">
-        <v>10.9</v>
-      </c>
-      <c r="M46">
         <v>32.9</v>
       </c>
-      <c r="N46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>93.3</v>
+        <v>39.9</v>
       </c>
       <c r="C47">
-        <v>39.9</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D47">
-        <v>32.799999999999997</v>
+        <v>11.5</v>
       </c>
       <c r="E47">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="F47">
-        <v>8.5</v>
+        <v>152</v>
       </c>
       <c r="G47">
-        <v>152</v>
+        <v>24.7</v>
       </c>
       <c r="H47">
-        <v>24.7</v>
+        <v>146.6</v>
       </c>
       <c r="I47">
-        <v>146.6</v>
+        <v>28.7</v>
       </c>
       <c r="J47">
-        <v>28.7</v>
+        <v>52.5</v>
       </c>
       <c r="K47">
-        <v>52.5</v>
+        <v>10.8</v>
       </c>
       <c r="L47">
-        <v>10.8</v>
-      </c>
-      <c r="M47">
         <v>26.6</v>
       </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>79.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="C48">
-        <v>34.700000000000003</v>
+        <v>29.6</v>
       </c>
       <c r="D48">
-        <v>29.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E48">
-        <v>8.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="F48">
-        <v>9.5</v>
+        <v>134.6</v>
       </c>
       <c r="G48">
-        <v>134.6</v>
+        <v>22.7</v>
       </c>
       <c r="H48">
-        <v>22.7</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="I48">
-        <v>138.69999999999999</v>
+        <v>42.9</v>
       </c>
       <c r="J48">
-        <v>42.9</v>
+        <v>51.3</v>
       </c>
       <c r="K48">
-        <v>51.3</v>
+        <v>8.9</v>
       </c>
       <c r="L48">
-        <v>8.9</v>
-      </c>
-      <c r="M48">
         <v>22</v>
       </c>
-      <c r="N48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>228.2</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C49">
-        <v>36.700000000000003</v>
+        <v>59.5</v>
       </c>
       <c r="D49">
-        <v>59.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E49">
-        <v>17.899999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="F49">
-        <v>12.1</v>
+        <v>197.8</v>
       </c>
       <c r="G49">
-        <v>197.8</v>
+        <v>41.3</v>
       </c>
       <c r="H49">
-        <v>41.3</v>
+        <v>177</v>
       </c>
       <c r="I49">
-        <v>177</v>
+        <v>35.9</v>
       </c>
       <c r="J49">
-        <v>35.9</v>
+        <v>122.2</v>
       </c>
       <c r="K49">
-        <v>122.2</v>
+        <v>17</v>
       </c>
       <c r="L49">
-        <v>17</v>
-      </c>
-      <c r="M49">
         <v>81.400000000000006</v>
       </c>
-      <c r="N49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>130.19999999999999</v>
+        <v>36.4</v>
       </c>
       <c r="C50">
-        <v>36.4</v>
+        <v>35.6</v>
       </c>
       <c r="D50">
-        <v>35.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E50">
-        <v>9.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="F50">
-        <v>7.3</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="G50">
-        <v>162.19999999999999</v>
+        <v>22</v>
       </c>
       <c r="H50">
-        <v>22</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="I50">
-        <v>148.69999999999999</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="J50">
-        <v>33.200000000000003</v>
+        <v>71.5</v>
       </c>
       <c r="K50">
-        <v>71.5</v>
+        <v>12.1</v>
       </c>
       <c r="L50">
-        <v>12.1</v>
-      </c>
-      <c r="M50">
         <v>27.7</v>
       </c>
-      <c r="N50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>269.5</v>
+        <v>30.6</v>
       </c>
       <c r="C51">
-        <v>30.6</v>
+        <v>53.5</v>
       </c>
       <c r="D51">
-        <v>53.5</v>
+        <v>11.6</v>
       </c>
       <c r="E51">
-        <v>11.6</v>
+        <v>6.8</v>
       </c>
       <c r="F51">
-        <v>6.8</v>
+        <v>160.4</v>
       </c>
       <c r="G51">
-        <v>160.4</v>
+        <v>20.7</v>
       </c>
       <c r="H51">
-        <v>20.7</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="I51">
-        <v>136.30000000000001</v>
+        <v>32.1</v>
       </c>
       <c r="J51">
-        <v>32.1</v>
+        <v>60.4</v>
       </c>
       <c r="K51">
-        <v>60.4</v>
+        <v>19.7</v>
       </c>
       <c r="L51">
-        <v>19.7</v>
-      </c>
-      <c r="M51">
         <v>17.399999999999999</v>
       </c>
-      <c r="N51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N52" s="1">
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="1">
         <v>0</v>
       </c>
     </row>
